--- a/data/PREBAS_parameters.xlsx
+++ b/data/PREBAS_parameters.xlsx
@@ -352,320 +352,46 @@
     <t xml:space="preserve">pisy_FI</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">piab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">FI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">fasy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">RO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">piab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">fasy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Boreal</t>
-    </r>
+    <t xml:space="preserve">piab_FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fasy_RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piab_DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fasy_Boreal</t>
   </si>
   <si>
     <t xml:space="preserve">pisy_CAT</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">piun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_CAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">pipi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_CAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">pihal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_CAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">pinig</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_CAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">abal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_CAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">qufa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_CAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">quil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_CAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">qusu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_CAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">fasy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_CAT</t>
-    </r>
+    <t xml:space="preserve">piun_CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pipi_CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pihal_CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinig_CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abal_CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qufa_CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quil_CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qusu_CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fasy_CAT</t>
   </si>
   <si>
     <t xml:space="preserve">cR</t>
@@ -843,7 +569,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,12 +591,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -921,7 +641,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -935,6 +655,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1190,7 +914,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A1:V1 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="M2:V4 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3828125" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2117,7 +1841,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A1:V1 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="M2:V4 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3828125" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2538,7 +2262,7 @@
   <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="A1:V1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="M2:V4 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3828125" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6400,7 +6124,7 @@
   <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:V1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M2:V4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8206,7 +7930,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="1" sqref="A1:V1 E14"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="1" sqref="M2:V4 E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8624,7 +8348,7 @@
   <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:V1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M2:V4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9550,8 +9274,8 @@
   </sheetPr>
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:V1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2:V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9664,35 +9388,35 @@
       <c r="L2" s="2" t="n">
         <v>1.26813</v>
       </c>
-      <c r="M2" s="2" t="n">
-        <v>1.4628</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>1.4628</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>1.4628</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>1.4628</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>1.4628</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>1.4628</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>1.4628</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>1.4628</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>1.4628</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>1.4628</v>
+      <c r="M2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9732,35 +9456,35 @@
       <c r="L3" s="2" t="n">
         <v>-0.21981</v>
       </c>
-      <c r="M3" s="2" t="n">
-        <v>-0.256007</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>-0.256007</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>-0.256007</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>-0.256007</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>-0.256007</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>-0.256007</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>-0.256007</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>-0.256007</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>-0.256007</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>-0.256007</v>
+      <c r="M3" s="4" t="n">
+        <v>1.201</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.401</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.106</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>-0.328</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>-0.328</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>-0.428</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9800,35 +9524,35 @@
       <c r="L4" s="2" t="n">
         <v>-0.1405</v>
       </c>
-      <c r="M4" s="2" t="n">
-        <v>0.017293</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0.017293</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>0.017293</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>0.017293</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>0.017293</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>0.017293</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>0.017293</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>0.017293</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>0.017293</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>0.017293</v>
+      <c r="M4" s="4" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.667</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9862,36 +9586,6 @@
       <c r="L5" s="2" t="n">
         <v>0.50624</v>
       </c>
-      <c r="M5" s="2" t="n">
-        <v>-0.089891</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>-0.089891</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>-0.089891</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>-0.089891</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>-0.089891</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>-0.089891</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>-0.089891</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>-0.089891</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>-0.089891</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>-0.089891</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -9924,36 +9618,6 @@
       <c r="L6" s="2" t="n">
         <v>-0.3196</v>
       </c>
-      <c r="M6" s="2" t="n">
-        <v>0.213387</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>0.213387</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>0.213387</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>0.213387</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>0.213387</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>0.213387</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>0.213387</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>0.213387</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>0.213387</v>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>0.213387</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -9971,36 +9635,6 @@
       <c r="J7" s="2" t="n">
         <v>-0.418347</v>
       </c>
-      <c r="M7" s="2" t="n">
-        <v>-0.079094</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>-0.079094</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>-0.079094</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>-0.079094</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>-0.079094</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>-0.079094</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>-0.079094</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>-0.079094</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>-0.079094</v>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>-0.079094</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -10017,36 +9651,6 @@
       </c>
       <c r="J8" s="2" t="n">
         <v>0</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>-0.062191</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>-0.062191</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>-0.062191</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>-0.062191</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>-0.062191</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>-0.062191</v>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>-0.062191</v>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>-0.062191</v>
-      </c>
-      <c r="U8" s="2" t="n">
-        <v>-0.062191</v>
-      </c>
-      <c r="V8" s="2" t="n">
-        <v>-0.062191</v>
       </c>
     </row>
   </sheetData>
